--- a/results/heap.xlsx
+++ b/results/heap.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E2FE9D4-E40F-4E68-A975-CEA882ED5552}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
     <sheet name="reversed" sheetId="2" r:id="rId2"/>
     <sheet name="sorted" sheetId="3" r:id="rId3"/>
     <sheet name="partly_sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="same_elements" sheetId="5" r:id="rId5"/>
+    <sheet name="partly_same" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>byte</t>
   </si>
@@ -34,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -386,30 +438,30 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001004</v>
+        <v>1.004E-4</v>
       </c>
       <c r="C2">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D2">
-        <v>0.0044048</v>
+        <v>4.4048000000000004E-3</v>
       </c>
       <c r="E2">
-        <v>0.0475496</v>
+        <v>4.7549599999999997E-2</v>
       </c>
       <c r="F2">
-        <v>0.624259</v>
+        <v>0.62425900000000001</v>
       </c>
       <c r="G2">
-        <v>7.2213858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>7.2213858000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,22 +469,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003002</v>
+        <v>3.0019999999999998E-4</v>
       </c>
       <c r="D3">
-        <v>0.006506799999999998</v>
+        <v>6.5067999999999983E-3</v>
       </c>
       <c r="E3">
-        <v>0.0610638</v>
+        <v>6.1063800000000001E-2</v>
       </c>
       <c r="F3">
-        <v>0.7311664</v>
+        <v>0.73116639999999999</v>
       </c>
       <c r="G3">
-        <v>9.555811599999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9.5558115999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -440,39 +492,39 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003004</v>
+        <v>3.0039999999999998E-4</v>
       </c>
       <c r="D4">
-        <v>0.010711</v>
+        <v>1.0711E-2</v>
       </c>
       <c r="E4">
-        <v>0.06356619999999999</v>
+        <v>6.3566199999999989E-2</v>
       </c>
       <c r="F4">
-        <v>0.9402158</v>
+        <v>0.94021580000000005</v>
       </c>
       <c r="G4">
         <v>9.654478000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001004</v>
+        <v>1.004E-4</v>
       </c>
       <c r="C5">
-        <v>0.0004004000000000001</v>
+        <v>4.0040000000000008E-4</v>
       </c>
       <c r="D5">
-        <v>0.005806</v>
+        <v>5.8060000000000004E-3</v>
       </c>
       <c r="E5">
-        <v>0.0562588</v>
+        <v>5.6258799999999998E-2</v>
       </c>
       <c r="F5">
-        <v>0.8433012</v>
+        <v>0.84330119999999997</v>
       </c>
       <c r="G5">
         <v>10.3674482</v>
@@ -484,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -511,7 +563,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,22 +571,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>0.0029102</v>
+        <v>2.9101999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>0.0423442</v>
+        <v>4.2344199999999999E-2</v>
       </c>
       <c r="F2">
-        <v>0.5546862000000001</v>
+        <v>0.55468620000000013</v>
       </c>
       <c r="G2">
-        <v>7.041177999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>7.0411779999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -542,22 +594,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>0.003897</v>
+        <v>3.8969999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>0.0610638</v>
+        <v>6.1063800000000001E-2</v>
       </c>
       <c r="F3">
-        <v>0.6441750000000001</v>
+        <v>0.64417500000000005</v>
       </c>
       <c r="G3">
-        <v>8.600117000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8.6001170000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -565,22 +617,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003004</v>
+        <v>3.0039999999999998E-4</v>
       </c>
       <c r="D4">
-        <v>0.0038118</v>
+        <v>3.8118000000000002E-3</v>
       </c>
       <c r="E4">
-        <v>0.0566666</v>
+        <v>5.6666599999999998E-2</v>
       </c>
       <c r="F4">
-        <v>0.6781464</v>
+        <v>0.67814640000000004</v>
       </c>
       <c r="G4">
-        <v>8.870421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>8.8704210000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -588,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.0041968</v>
+        <v>4.1967999999999997E-3</v>
       </c>
       <c r="E5">
-        <v>0.0563516</v>
+        <v>5.6351600000000002E-2</v>
       </c>
       <c r="F5">
-        <v>0.6649010000000001</v>
+        <v>0.66490100000000008</v>
       </c>
       <c r="G5">
         <v>8.501380000000001</v>
@@ -609,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -636,7 +688,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,22 +696,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0006004</v>
+        <v>6.0039999999999996E-4</v>
       </c>
       <c r="D2">
-        <v>0.0031032</v>
+        <v>3.1032E-3</v>
       </c>
       <c r="E2">
-        <v>0.0463418</v>
+        <v>4.6341800000000002E-2</v>
       </c>
       <c r="F2">
-        <v>0.5640818</v>
+        <v>0.56408179999999997</v>
       </c>
       <c r="G2">
-        <v>6.873279999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6.8732799999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003006</v>
+        <v>3.0059999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>0.0036106</v>
+        <v>3.6105999999999998E-3</v>
       </c>
       <c r="E3">
-        <v>0.0550648</v>
+        <v>5.5064799999999997E-2</v>
       </c>
       <c r="F3">
-        <v>0.7447872</v>
+        <v>0.74478719999999998</v>
       </c>
       <c r="G3">
-        <v>7.972014799999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7.9720147999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -690,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>0.004004</v>
+        <v>4.0039999999999997E-3</v>
       </c>
       <c r="E4">
-        <v>0.0569596</v>
+        <v>5.6959599999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.7321570000000001</v>
+        <v>0.73215700000000006</v>
       </c>
       <c r="G4">
-        <v>8.397540800000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>8.3975408000000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -713,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D5">
-        <v>0.0040108</v>
+        <v>4.0108000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>0.0577602</v>
+        <v>5.7760199999999998E-2</v>
       </c>
       <c r="F5">
         <v>0.708847</v>
       </c>
       <c r="G5">
-        <v>8.8977012</v>
+        <v>8.8977012000000002</v>
       </c>
     </row>
   </sheetData>
@@ -734,14 +786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -761,7 +813,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -769,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0003002</v>
+        <v>3.0019999999999998E-4</v>
       </c>
       <c r="D2">
-        <v>0.003003</v>
+        <v>3.003E-3</v>
       </c>
       <c r="E2">
-        <v>0.0460406</v>
+        <v>4.6040600000000001E-2</v>
       </c>
       <c r="F2">
         <v>0.6020354</v>
       </c>
       <c r="G2">
-        <v>7.733426799999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>7.7334267999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -792,22 +844,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003006</v>
+        <v>3.0059999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>0.0038042</v>
+        <v>3.8042000000000002E-3</v>
       </c>
       <c r="E3">
-        <v>0.05605839999999999</v>
+        <v>5.6058399999999987E-2</v>
       </c>
       <c r="F3">
         <v>0.7165454</v>
       </c>
       <c r="G3">
-        <v>9.4614636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9.4614636000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -815,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>0.003912000000000001</v>
+        <v>3.9120000000000014E-3</v>
       </c>
       <c r="E4">
-        <v>0.06516799999999999</v>
+        <v>6.516799999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.7790058</v>
+        <v>0.77900579999999997</v>
       </c>
       <c r="G4">
-        <v>10.4246826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10.424682600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -838,19 +890,271 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003004</v>
+        <v>3.0039999999999998E-4</v>
       </c>
       <c r="D5">
-        <v>0.0042042</v>
+        <v>4.2042E-3</v>
       </c>
       <c r="E5">
-        <v>0.0611638</v>
+        <v>6.1163799999999997E-2</v>
       </c>
       <c r="F5">
-        <v>0.7539933999999999</v>
+        <v>0.75399339999999992</v>
       </c>
       <c r="G5">
-        <v>9.920023400000002</v>
+        <v>9.9200234000000016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90BD2D1-1FFE-4679-A625-B415972995A3}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2.5040000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.5524999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.21625900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3">
+        <v>2.5360000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>2.2020999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.217694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2.0010000000000002E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.2023000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.217727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.9899999999999999E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.5040000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.2023000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.244257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9520D8-E9B7-4A00-8748-E86E228F809E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3.5019999999999999E-3</v>
+      </c>
+      <c r="E2">
+        <v>4.1542999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.57780500000000001</v>
+      </c>
+      <c r="G2">
+        <v>6.5654029999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.5049999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>4.8585999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.66244999999999998</v>
+      </c>
+      <c r="G3">
+        <v>8.1239950000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.503E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.8513000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.65585199999999999</v>
+      </c>
+      <c r="G4">
+        <v>8.6227640000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.5040000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.8548000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.64082600000000001</v>
+      </c>
+      <c r="G5">
+        <v>9.330857</v>
       </c>
     </row>
   </sheetData>
